--- a/dtpu_configurations/only_integer16/80mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D0E8D-DB21-4F7B-A51E-1CA7914CB25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3B0D6-665B-487F-A904-4BE48B81440D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="utilization" sheetId="1" r:id="rId1"/>
+    <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -17,7 +17,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+  <si>
+    <t>Clocks</t>
+  </si>
+  <si>
+    <t>Signals</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>BRAM</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>XADC</t>
+  </si>
+  <si>
+    <t>PS7</t>
+  </si>
+  <si>
+    <t>PL Static</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
   <si>
     <t>3x3</t>
   </si>
@@ -50,45 +80,6 @@
   </si>
   <si>
     <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
-  </si>
-  <si>
-    <t>Clocks</t>
-  </si>
-  <si>
-    <t>Signals</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>BRAM</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>XADC</t>
-  </si>
-  <si>
-    <t>PS7</t>
-  </si>
-  <si>
-    <t>PL Static</t>
-  </si>
-  <si>
-    <t>Total Power</t>
   </si>
   <si>
     <t>WNS</t>
@@ -224,7 +215,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4179133858267719E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -233,7 +234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$B$1</c:f>
+              <c:f>utilizaiton!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -256,9 +257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -291,66 +292,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$B$2:$B$15</c:f>
+              <c:f>utilizaiton!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>17.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.14</c:v>
+                  <c:v>19.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.77</c:v>
+                  <c:v>20.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.03</c:v>
+                  <c:v>22.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.02</c:v>
+                  <c:v>23.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.8</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.94</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.91</c:v>
+                  <c:v>33.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.5</c:v>
+                  <c:v>45.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.09</c:v>
+                  <c:v>76.180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,7 +341,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000000-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -367,7 +350,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$C$1</c:f>
+              <c:f>utilizaiton!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -390,9 +373,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -425,22 +408,13 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$C$2:$C$15</c:f>
+              <c:f>utilizaiton!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -451,40 +425,31 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.41</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.71</c:v>
+                  <c:v>6.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.08</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.26</c:v>
+                  <c:v>7.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.45</c:v>
+                  <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.17</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,7 +457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000001-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -501,7 +466,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$D$1</c:f>
+              <c:f>utilizaiton!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -524,9 +489,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -559,66 +524,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$D$2:$D$15</c:f>
+              <c:f>utilizaiton!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>11.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.82</c:v>
+                  <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.23</c:v>
+                  <c:v>18.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.95</c:v>
+                  <c:v>21.41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>24.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.09</c:v>
+                  <c:v>30.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.99</c:v>
+                  <c:v>40.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,7 +573,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000002-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -635,7 +582,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$E$1</c:f>
+              <c:f>utilizaiton!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,9 +605,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -693,39 +640,30 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$E$2:$E$15</c:f>
+              <c:f>utilizaiton!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>45.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>57.86</c:v>
@@ -743,15 +681,6 @@
                   <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -760,7 +689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000003-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -769,7 +698,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$F$1</c:f>
+              <c:f>utilizaiton!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -792,9 +721,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -827,22 +756,13 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$F$2:$F$15</c:f>
+              <c:f>utilizaiton!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -877,15 +797,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -894,7 +805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000004-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -903,7 +814,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$G$1</c:f>
+              <c:f>utilizaiton!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -926,9 +837,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -961,22 +872,13 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$G$2:$G$15</c:f>
+              <c:f>utilizaiton!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1011,15 +913,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1028,7 +921,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000005-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1037,7 +930,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>utilization!$H$1</c:f>
+              <c:f>utilizaiton!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,9 +955,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>utilization!$A$2:$A$15</c:f>
+              <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1097,22 +990,13 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>utilization!$H$2:$H$15</c:f>
+              <c:f>utilizaiton!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1147,15 +1031,6 @@
                   <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1164,7 +1039,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E909-45E4-9A53-E0983FCEE5B6}"/>
+              <c16:uniqueId val="{00000006-4D76-4CA9-B932-FC8FBFDBB79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,11 +1052,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="695418616"/>
-        <c:axId val="695417304"/>
+        <c:axId val="552697328"/>
+        <c:axId val="552695032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="695418616"/>
+        <c:axId val="552697328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1099,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695417304"/>
+        <c:crossAx val="552695032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1232,7 +1107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="695417304"/>
+        <c:axId val="552695032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1158,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695418616"/>
+        <c:crossAx val="552697328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,7 +1325,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1483,15 +1358,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,46 +1369,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.08</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.28</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.34902036190032959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,7 +1407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FBE-449D-A72B-BAF6B3DCFC93}"/>
+              <c16:uniqueId val="{00000000-3CFE-473D-AD83-CBF8B7A84EEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1584,7 +1441,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1617,15 +1474,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1637,7 +1485,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
@@ -1646,16 +1494,16 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.02</c:v>
@@ -1667,15 +1515,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1.5648594126105309E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1684,7 +1523,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FBE-449D-A72B-BAF6B3DCFC93}"/>
+              <c16:uniqueId val="{00000001-3CFE-473D-AD83-CBF8B7A84EEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1697,11 +1536,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="484591544"/>
-        <c:axId val="484591872"/>
+        <c:axId val="552701920"/>
+        <c:axId val="552700608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484591544"/>
+        <c:axId val="552701920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1583,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484591872"/>
+        <c:crossAx val="552700608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484591872"/>
+        <c:axId val="552700608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1642,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484591544"/>
+        <c:crossAx val="552701920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,7 +1848,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2042,15 +1881,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2062,7 +1892,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
@@ -2080,7 +1910,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.04</c:v>
@@ -2089,18 +1919,9 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2108,7 +1929,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000000-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2141,7 +1962,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2174,15 +1995,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2200,16 +2012,16 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.02</c:v>
@@ -2224,15 +2036,6 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
@@ -2240,7 +2043,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000001-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2273,7 +2076,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2306,15 +2109,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2358,21 +2152,12 @@
                 <c:pt idx="10">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000002-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2405,7 +2190,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2438,15 +2223,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2490,21 +2266,12 @@
                 <c:pt idx="10">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000003-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2537,7 +2304,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2570,15 +2337,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2622,21 +2380,12 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000004-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2669,7 +2418,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2702,15 +2451,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,21 +2494,12 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000005-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2803,7 +2534,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2836,15 +2567,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2888,21 +2610,12 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000006-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2937,7 +2650,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2970,15 +2683,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3022,21 +2726,12 @@
                 <c:pt idx="10">
                   <c:v>1.26</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.26</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000007-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3071,7 +2766,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3104,15 +2799,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3156,21 +2842,12 @@
                 <c:pt idx="10">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000008-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3205,7 +2882,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3238,15 +2915,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3258,19 +2926,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.46</c:v>
@@ -3279,32 +2947,23 @@
                   <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.52</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B959-409D-8A97-071AED383F4A}"/>
+              <c16:uniqueId val="{00000009-99F5-4827-9632-6E18FEE23E7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3318,12 +2977,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="476886000"/>
-        <c:axId val="476886328"/>
-        <c:axId val="471836576"/>
+        <c:axId val="552697656"/>
+        <c:axId val="552698312"/>
+        <c:axId val="359543648"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="476886000"/>
+        <c:axId val="552697656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3019,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476886328"/>
+        <c:crossAx val="552698312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476886328"/>
+        <c:axId val="552698312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,12 +3078,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476886000"/>
+        <c:crossAx val="552697656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="471836576"/>
+        <c:axId val="359543648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3119,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476886328"/>
+        <c:crossAx val="552698312"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5196,23 +4855,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11962C0F-D24A-4D1F-96CB-D7D767F5837B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F3F407-11FE-46C4-87DB-0DBDFEFC3244}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5237,23 +4896,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65529163-7DD2-4EA6-8BAB-64B313F72160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8493DA22-B9A1-40B1-AEA7-E6329094F234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5279,22 +4938,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F748D3B-F4AB-48BF-873C-6F52EF554C4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57079C7B-B8BF-4C99-84DE-3DB346D139C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5636,52 +5295,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>16.5</v>
+        <v>17.71</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>11.57</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>45.71</v>
       </c>
       <c r="F2">
         <v>2.73</v>
@@ -5693,9 +5352,9 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>17.45</v>
@@ -5719,21 +5378,21 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>18.14</v>
+        <v>19.88</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>5.53</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13.02</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
         <v>9.09</v>
@@ -5745,21 +5404,21 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>18.77</v>
+        <v>20.96</v>
       </c>
       <c r="C5">
-        <v>5.53</v>
+        <v>5.68</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>13.92</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
         <v>13.64</v>
@@ -5771,21 +5430,21 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>19.03</v>
+        <v>22.14</v>
       </c>
       <c r="C6">
-        <v>5.62</v>
+        <v>5.86</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14.73</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
         <v>19.09</v>
@@ -5797,18 +5456,18 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>20.02</v>
+        <v>23.54</v>
       </c>
       <c r="C7">
-        <v>5.71</v>
+        <v>6.02</v>
       </c>
       <c r="D7">
-        <v>13.82</v>
+        <v>15.94</v>
       </c>
       <c r="E7">
         <v>57.86</v>
@@ -5823,18 +5482,18 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>21.8</v>
+        <v>26.5</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.45</v>
       </c>
       <c r="D8">
-        <v>15.23</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="E8">
         <v>57.86</v>
@@ -5849,18 +5508,18 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>23.94</v>
+        <v>29.9</v>
       </c>
       <c r="C9">
-        <v>6.08</v>
+        <v>6.82</v>
       </c>
       <c r="D9">
-        <v>16.95</v>
+        <v>21.41</v>
       </c>
       <c r="E9">
         <v>57.86</v>
@@ -5875,18 +5534,18 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>25.91</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="C10">
-        <v>6.26</v>
+        <v>7.12</v>
       </c>
       <c r="D10">
-        <v>18.899999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="E10">
         <v>57.86</v>
@@ -5900,20 +5559,19 @@
       <c r="H10">
         <v>3.13</v>
       </c>
-      <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>31.5</v>
+        <v>45.2</v>
       </c>
       <c r="C11">
-        <v>6.45</v>
+        <v>7.55</v>
       </c>
       <c r="D11">
-        <v>22.09</v>
+        <v>30.44</v>
       </c>
       <c r="E11">
         <v>57.86</v>
@@ -5928,18 +5586,18 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>43.22</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="C12">
-        <v>6.62</v>
+        <v>7.9</v>
       </c>
       <c r="D12">
-        <v>27.6</v>
+        <v>40.21</v>
       </c>
       <c r="E12">
         <v>57.86</v>
@@ -5951,126 +5609,56 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>3.13</v>
+        <v>6.25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.05</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.79</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.760000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.09</v>
-      </c>
-      <c r="C15">
-        <v>7.17</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.39</v>
@@ -6081,10 +5669,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -6092,21 +5680,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>2.0099999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>2.08</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
         <v>0.03</v>
@@ -6114,32 +5702,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>1.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C9">
         <v>0.02</v>
@@ -6147,10 +5735,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.86</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -6158,10 +5746,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -6169,45 +5757,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.27</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.34902036190032959</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.5648594126105309E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15">
         <v>0.01</v>
       </c>
     </row>
@@ -6219,52 +5774,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -6291,12 +5846,12 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.03</v>
@@ -6331,13 +5886,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.03</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0.01</v>
@@ -6361,12 +5916,12 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.03</v>
@@ -6401,13 +5956,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.03</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
         <v>0.01</v>
@@ -6431,18 +5986,18 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.03</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
         <v>0.01</v>
@@ -6471,10 +6026,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
         <v>0.02</v>
@@ -6506,7 +6061,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.04</v>
@@ -6536,12 +6091,12 @@
         <v>0.13</v>
       </c>
       <c r="K9">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.04</v>
@@ -6571,15 +6126,15 @@
         <v>0.13</v>
       </c>
       <c r="K10">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
         <v>0.02</v>
@@ -6611,13 +6166,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -6641,116 +6196,15 @@
         <v>0.13</v>
       </c>
       <c r="K12">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.05</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>0.03</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
-      <c r="D15">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>0.02</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.52</v>
-      </c>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dtpu_configurations/only_integer16/80mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3B0D6-665B-487F-A904-4BE48B81440D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E68F1-0F05-4C12-93DE-EA8CEBD40A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Clocks</t>
   </si>
@@ -99,11 +109,17 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,12 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1729,1482 +1752,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$K$2:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="552697656"/>
-        <c:axId val="552698312"/>
-        <c:axId val="359543648"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="552697656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552698312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="552698312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552697656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="359543648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552698312"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3285,46 +1832,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4325,500 +2832,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4913,47 +2926,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8493DA22-B9A1-40B1-AEA7-E6329094F234}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57079C7B-B8BF-4C99-84DE-3DB346D139C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView topLeftCell="A1048548" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5774,15 +3746,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5813,391 +3788,983 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.45</v>
+      <c r="B2" s="4">
+        <v>3.096638061106205E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.2773372232913971E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0034229606389999E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.9143919497728348E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.880567864049226E-6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.6463621286675334E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12646675109863281</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4497603178024292</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>6.2845230102539063E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5">
+        <f>B2/L2</f>
+        <v>0.49274034895785912</v>
+      </c>
+      <c r="P2" s="5">
+        <f>C2/L2</f>
+        <v>0.2032512604707275</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>D2/L2</f>
+        <v>0.15966573103508452</v>
+      </c>
+      <c r="R2" s="5">
+        <f>E2/L2</f>
+        <v>9.4110435113736374E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f>F2/L2</f>
+        <v>1.2539643583436949E-4</v>
+      </c>
+      <c r="T2" s="5">
+        <f>G2/L2</f>
+        <v>2.6197089675402706E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f>H2/L2</f>
+        <v>2.3747590232964202E-2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="5">
+        <f>I2/K2</f>
+        <v>0.86941842808324754</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>J2/K2</f>
+        <v>8.7232868458100174E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>L2/K2</f>
+        <v>4.3348703458652327E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.03</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.45</v>
+      <c r="B3" s="4">
+        <v>2.6066379621624947E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.4921899884939194E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0260794311761856E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.4822784624993801E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.3018439605948515E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.6959058120846748E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.12651583552360535</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4479169845581055</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="0">K3-J3-I3</f>
+        <v>6.0952812433242798E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.42764851335077547</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.24481068697661934</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.16833996500161105</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10634912818172172</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>3.7764360145249977E-4</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.7823257769148513E-2</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.4484887784398581E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.87052527875825536</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.737782405544274E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>4.2096897186301871E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.03</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.46</v>
+      <c r="B4" s="4">
+        <v>3.2716244459152222E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.4678911305963993E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0618066415190697E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.1015959084033966E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.9890720371622592E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.673029899597168E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12764394283294678</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4613769054412842</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.3284626007080078E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44642711905211174</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20030000978030307</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14488804806297131</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15031746335131338</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0901429771082449E-3</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="6"/>
+        <v>3.647463383846599E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.036474570296996E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86250735994808025</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7344984280015581E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="10"/>
+        <v>5.0147655771904179E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.03</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.46</v>
+      <c r="B5" s="4">
+        <v>3.2597362995147705E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.4375525526702404E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0105609893798828E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0390846058726311E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.9257818348705769E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.3236784618347883E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12762922048568726</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4595657587051392</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>7.148820161819458E-2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45598241747979984</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2010894833175334</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14136052754230752</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14535050292944729</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6938456854122945E-3</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="6"/>
+        <v>3.2504363087004627E-2</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0876490648655589E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86357762854033393</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7443282171071307E-2</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="10"/>
+        <v>4.897908928859477E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.47</v>
+      <c r="B6" s="4">
+        <v>3.421546146273613E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.668214239180088E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.089771743863821E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.0323453694581985E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.0557500324212015E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.436380997300148E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12767818570137024</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4655897617340088</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>7.7463239431381226E-2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4416993365355576</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21535559982071648</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14068243877525502</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13326906762951407</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="5"/>
+        <v>5.235709301847467E-3</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="6"/>
+        <v>4.4361441924258484E-2</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9266206571356571E-2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86002807164124906</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7117274584606899E-2</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="10"/>
+        <v>5.2854653774143993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0.03</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.46</v>
+      <c r="B7" s="4">
+        <v>3.4771960228681564E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5054875053465366E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.084665022790432E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.4111572466790676E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.0013418735470623E-5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.8983392510563135E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.12762977182865143</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4596337080001831</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>7.1555599570274353E-2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4859432446587526</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21039408716965691</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15158352795649327</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10357200961471383</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="5"/>
+        <v>9.7844779662157439E-4</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6529569488017008E-2</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0856827160056768E-2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86353742702213565</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7439589212772159E-2</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="10"/>
+        <v>4.9022983765092232E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>0.04</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.46</v>
+      <c r="B8" s="4">
+        <v>3.6839623004198074E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.6010822728276253E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1369539424777031E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.0690076574683189E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.270490848692134E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.1374234929680824E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.12766611576080322</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4641062021255493</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>7.599174976348877E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48478450777689758</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21069159189131953</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14961544457342757</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10618268012753641</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="5"/>
+        <v>8.2515416057768855E-4</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="6"/>
+        <v>2.812704668099425E-2</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9639273700320804E-2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86089952680438953</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7197305479248061E-2</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="10"/>
+        <v>5.19031677163624E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>0.04</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.48</v>
+      <c r="B9" s="4">
+        <v>4.0112372487783432E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.7987513914704323E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1631176806986332E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4233378693461418E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.3576710373163223E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.4136700667440891E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12776559591293335</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.4763305187225342</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>8.8116586208343506E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:O13" si="11">B9/L9</f>
+        <v>0.45521932037790752</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ref="P9:P13" si="12">C9/L9</f>
+        <v>0.20413312281724705</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" ref="Q9:Q13" si="13">D9/L9</f>
+        <v>0.13199758759929137</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9:R13" si="14">E9/L9</f>
+        <v>0.16152893916938535</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:S13" si="15">F9/L9</f>
+        <v>2.6756268470748829E-3</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" ref="T9:T13" si="16">G9/L9</f>
+        <v>2.7391779125863883E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" ref="U9:U13" si="17">H9/L9</f>
+        <v>1.6936910935731773E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" ref="X9:X12" si="18">I9/K9</f>
+        <v>0.85377110383921395</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9:Y12" si="19">J9/K9</f>
+        <v>8.6542677464588796E-2</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9:Z12" si="20">L9/K9</f>
+        <v>5.9686218696197252E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>0.04</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.48</v>
+      <c r="B10" s="4">
+        <v>4.3805893510580063E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.1202344447374344E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.2852024286985397E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.3582440167665482E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.0674814954400063E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.131622051820159E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.12779140472412109</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.479499340057373</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>9.1259598731994629E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.4800140929747721</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
+        <v>0.23233002053449783</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14082928771940367</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="14"/>
+        <v>0.10254531191013937</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="15"/>
+        <v>4.4570451239711525E-3</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="16"/>
+        <v>2.3357784621431118E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="17"/>
+        <v>1.6353597794729478E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="18"/>
+        <v>0.85194247977993609</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="19"/>
+        <v>8.6374762910786773E-2</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="20"/>
+        <v>6.1682757309277136E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>0.05</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.48</v>
+      <c r="B11" s="4">
+        <v>4.6339076012372971E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.234395407140255E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.2938764877617359E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9.8586548119783401E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6.5779831493273377E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.7333232099190354E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.12782521545886993</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.4836477041244507</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>9.5374152064323425E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.48586619130433151</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="12"/>
+        <v>0.23427683064834026</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="13"/>
+        <v>0.13566322318536617</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="14"/>
+        <v>0.10336820405312064</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="15"/>
+        <v>6.8970292337602462E-3</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="16"/>
+        <v>1.8173930487476585E-2</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5648084310777476E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="18"/>
+        <v>0.8495603997480583</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="19"/>
+        <v>8.6156043044129396E-2</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="20"/>
+        <v>6.4283557207812245E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>0.05</v>
-      </c>
-      <c r="C12">
-        <v>0.03</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.49</v>
-      </c>
+      <c r="B12" s="4">
+        <v>4.7928139567375183E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.6370871812105179E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.4985552988946438E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.9593572989106178E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.8788248831406236E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.1897289659827948E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.4924227725714445E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2604483366012573</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.12786182761192322</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4881341457366943</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>9.9823981523513794E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.48012650703664417</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="12"/>
+        <v>0.26417371266536238</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="13"/>
+        <v>0.15011976841873967</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="14"/>
+        <v>6.9716286534527008E-2</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="15"/>
+        <v>8.8944808127585998E-3</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="16"/>
+        <v>1.1918268013609045E-2</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4950543444511884E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="18"/>
+        <v>0.8469991366116244</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="19"/>
+        <v>8.5920901672897093E-2</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="20"/>
+        <v>6.7079961715478517E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G26" s="2"/>
@@ -6205,6 +4772,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>